--- a/Assets/Tables/card.xlsx
+++ b/Assets/Tables/card.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\Alfa\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0135B1-9592-42EC-8A7A-6CE4992A7C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13970C2D-33C7-47E0-AEB4-D1F3464C9DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3390" windowWidth="28830" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="card" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -54,6 +54,22 @@
   </si>
   <si>
     <t>C4</t>
+  </si>
+  <si>
+    <t>use_func</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>expr_tree</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Func(1)&amp;&amp;Test_Func(2)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -454,73 +470,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="36.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="C7" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
